--- a/DCF Models/MCHP.xlsx
+++ b/DCF Models/MCHP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\DCF Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0FDE38-4348-4E33-A627-132B2587CFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22611D1-6E38-435B-84E7-6139D6F33A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15495" yWindow="0" windowWidth="32445" windowHeight="21600" xr2:uid="{3056AFBF-C33C-44A0-B793-E31A92920761}"/>
+    <workbookView xWindow="16545" yWindow="6030" windowWidth="27045" windowHeight="15045" xr2:uid="{3056AFBF-C33C-44A0-B793-E31A92920761}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Price</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>Direct control over manufacturing resources allows us to shorten our design and production cycles. This control also allows us to capture a portion of the wafer manufacturing and assembly and testing profit margin. We do outsource a significant portion of our manufacturing requirements to third parties and the amount of our outsourced manufacturing has increased in recent years due to our acquisitions of Microsemi and other companies that outsourced all or substantial portions of their manufacturing</t>
+  </si>
+  <si>
+    <t>In fiscal 2022, approximately 60% of our sales came from products that were produced at outside wafer foundries</t>
+  </si>
+  <si>
+    <t>As a result of our acquisitions, we have become more reliant on outside waferfoundries for our wafer fabrication requirements</t>
+  </si>
+  <si>
+    <t>We expect that our reliance on third-party contractors may increase over time as our business grows, and anyinability to secure necessary external capacity could adversely affect our operating results.</t>
+  </si>
+  <si>
+    <t>Over time, we intend to continue to migrate a portion of the outsourced assembly and test activities to our internal facilities</t>
+  </si>
+  <si>
+    <t>We believe that the capital expenditures anticipated to be incurred over the next twelve months will providesufficient manufacturing capacity to support the growth of our production capabilities for our new products and technologiesand to bring in-house more of the assembly and test operations that are currently outsourced.</t>
   </si>
 </sst>
 </file>
@@ -227,17 +245,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B3E6B5-2ED0-4ACF-895E-E286D10A7127}">
-  <dimension ref="M2:N15"/>
+  <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +741,19 @@
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
       <c r="M2" t="s">
         <v>7</v>
       </c>
@@ -726,7 +761,17 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="3" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="M3" t="s">
         <v>17</v>
       </c>
@@ -734,7 +779,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="M4" t="s">
         <v>18</v>
       </c>
@@ -742,15 +797,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="M6" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>79.680000000000007</v>
       </c>
     </row>
-    <row r="7" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
       <c r="M7" t="s">
         <v>1</v>
       </c>
@@ -758,7 +845,17 @@
         <v>549.20000000000005</v>
       </c>
     </row>
-    <row r="8" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="M8" t="s">
         <v>2</v>
       </c>
@@ -767,7 +864,17 @@
         <v>43760.256000000008</v>
       </c>
     </row>
-    <row r="9" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="M9" t="s">
         <v>3</v>
       </c>
@@ -775,7 +882,17 @@
         <v>288.89999999999998</v>
       </c>
     </row>
-    <row r="10" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="M10" t="s">
         <v>4</v>
       </c>
@@ -783,7 +900,7 @@
         <v>6588.7</v>
       </c>
     </row>
-    <row r="11" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M11" t="s">
         <v>6</v>
       </c>
@@ -792,7 +909,10 @@
         <v>50060.056000000004</v>
       </c>
     </row>
-    <row r="12" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
       <c r="M12" t="s">
         <v>5</v>
       </c>
@@ -801,10 +921,22 @@
         <v>-369.9</v>
       </c>
     </row>
-    <row r="13" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
       <c r="M14" t="s">
         <v>8</v>
       </c>
@@ -813,16 +945,113 @@
         <v>49396.022818172591</v>
       </c>
     </row>
-    <row r="15" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
       <c r="M15" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <f>N14/N7</f>
         <v>89.941774978464281</v>
       </c>
     </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K10"/>
+    <mergeCell ref="B14:K15"/>
+    <mergeCell ref="B17:K18"/>
+    <mergeCell ref="B22:K25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1565,7 +1794,7 @@
       <c r="E10" s="3">
         <v>604.20000000000005</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f>T10-E10-D10-C10</f>
         <v>623.80000000000018</v>
       </c>
@@ -1599,7 +1828,7 @@
       <c r="T10" s="3">
         <v>2371.3000000000002</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <f>SUM(F10:I10)*1.02</f>
         <v>2704.2240000000002</v>
       </c>
@@ -1609,35 +1838,35 @@
         <v>35</v>
       </c>
       <c r="C11" s="2">
-        <f>+C9-C10</f>
+        <f t="shared" ref="C11:J11" si="11">+C9-C10</f>
         <v>1007.6000000000001</v>
       </c>
       <c r="D11" s="2">
-        <f>+D9-D10</f>
+        <f t="shared" si="11"/>
         <v>1068.3</v>
       </c>
       <c r="E11" s="2">
-        <f>+E9-E10</f>
+        <f t="shared" si="11"/>
         <v>1153.3</v>
       </c>
       <c r="F11" s="2">
-        <f>+F9-F10</f>
+        <f t="shared" si="11"/>
         <v>1220.3999999999992</v>
       </c>
       <c r="G11" s="2">
-        <f>+G9-G10</f>
+        <f t="shared" si="11"/>
         <v>1309.8999999999999</v>
       </c>
       <c r="H11" s="2">
-        <f>+H9-H10</f>
+        <f t="shared" si="11"/>
         <v>1397.8999999999999</v>
       </c>
       <c r="I11" s="2">
-        <f>+I9-I10</f>
+        <f t="shared" si="11"/>
         <v>1470.7999999999997</v>
       </c>
       <c r="J11" s="2">
-        <f>+J9-J10</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M11" s="2">
@@ -1645,35 +1874,35 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11:U11" si="11">+N9-N10</f>
+        <f t="shared" ref="N11:U11" si="12">+N9-N10</f>
         <v>1205.5000000000002</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1757.2000000000003</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2420.7000000000003</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2931.3</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3242.1</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3378.7999999999997</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4449.5999999999995</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5506.98</v>
       </c>
       <c r="V11" s="2">
@@ -1681,39 +1910,39 @@
         <v>6436.7628156000001</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" ref="W11:AE11" si="12">W30*W9</f>
+        <f t="shared" ref="W11:AE11" si="13">W30*W9</f>
         <v>7337.9096097840002</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8071.7005707624012</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8798.153622131018</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9502.0059119015004</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10318.894778357509</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11041.217412842536</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11814.102631741516</v>
       </c>
       <c r="AD11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12641.089815963423</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13525.966103080864</v>
       </c>
     </row>
@@ -1730,8 +1959,8 @@
       <c r="E12" s="3">
         <v>245.4</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" ref="F12:F15" si="13">T12-E12-D12-C12</f>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:F15" si="14">T12-E12-D12-C12</f>
         <v>259.10000000000002</v>
       </c>
       <c r="G12" s="3">
@@ -1764,65 +1993,65 @@
       <c r="T12" s="3">
         <v>989.1</v>
       </c>
-      <c r="U12" s="4">
-        <f t="shared" ref="U12:U15" si="14">SUM(F12:I12)*1.02</f>
+      <c r="U12" s="3">
+        <f t="shared" ref="U12:U15" si="15">SUM(F12:I12)*1.02</f>
         <v>1100.682</v>
       </c>
     </row>
-    <row r="13" spans="2:121" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>174.3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>179.9</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>177.5</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="13"/>
+      <c r="F13" s="3">
+        <f t="shared" si="14"/>
         <v>187.2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>188.9</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>202.4</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>202.9</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>301.7</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>499.8</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>452.1</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>682.9</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>676.6</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>610.29999999999995</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>718.9</v>
       </c>
-      <c r="U13" s="4">
-        <f t="shared" si="14"/>
+      <c r="U13" s="3">
+        <f t="shared" si="15"/>
         <v>797.02800000000002</v>
       </c>
     </row>
     <row r="14" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="3">
@@ -1834,8 +2063,8 @@
       <c r="E14" s="3">
         <v>215.7</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="13"/>
+      <c r="F14" s="3">
+        <f t="shared" si="14"/>
         <v>215.49999999999997</v>
       </c>
       <c r="G14" s="3">
@@ -1868,13 +2097,13 @@
       <c r="T14" s="3">
         <v>862.5</v>
       </c>
-      <c r="U14" s="4">
-        <f t="shared" si="14"/>
+      <c r="U14" s="3">
+        <f t="shared" si="15"/>
         <v>732.3599999999999</v>
       </c>
     </row>
     <row r="15" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="3">
@@ -1886,8 +2115,8 @@
       <c r="E15" s="3">
         <v>-0.3</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="13"/>
+      <c r="F15" s="3">
+        <f t="shared" si="14"/>
         <v>9.1000000000000014</v>
       </c>
       <c r="G15" s="3">
@@ -1920,8 +2149,8 @@
       <c r="T15" s="3">
         <v>29.5</v>
       </c>
-      <c r="U15" s="4">
-        <f t="shared" si="14"/>
+      <c r="U15" s="3">
+        <f t="shared" si="15"/>
         <v>3.0600000000000027</v>
       </c>
     </row>
@@ -1930,35 +2159,35 @@
         <v>34</v>
       </c>
       <c r="C16" s="2">
-        <f>+C11-SUM(C12:C15)</f>
+        <f t="shared" ref="C16:J16" si="16">+C11-SUM(C12:C15)</f>
         <v>368.80000000000007</v>
       </c>
       <c r="D16" s="2">
-        <f>+D11-SUM(D12:D15)</f>
+        <f t="shared" si="16"/>
         <v>416.29999999999995</v>
       </c>
       <c r="E16" s="2">
-        <f>+E11-SUM(E12:E15)</f>
+        <f t="shared" si="16"/>
         <v>515</v>
       </c>
       <c r="F16" s="2">
-        <f>+F11-SUM(F12:F15)</f>
+        <f t="shared" si="16"/>
         <v>549.4999999999992</v>
       </c>
       <c r="G16" s="2">
-        <f>+G11-SUM(G12:G15)</f>
+        <f t="shared" si="16"/>
         <v>701.29999999999984</v>
       </c>
       <c r="H16" s="2">
-        <f>+H11-SUM(H12:H15)</f>
+        <f t="shared" si="16"/>
         <v>755.09999999999991</v>
       </c>
       <c r="I16" s="2">
-        <f>+I11-SUM(I12:I15)</f>
+        <f t="shared" si="16"/>
         <v>811.5999999999998</v>
       </c>
       <c r="J16" s="2">
-        <f>+J11-SUM(J12:J15)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M16" s="2">
@@ -1966,35 +2195,35 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" ref="N16:U16" si="15">+N11-SUM(N12:N15)</f>
+        <f t="shared" ref="N16:U16" si="17">+N11-SUM(N12:N15)</f>
         <v>352.3000000000003</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>275.80000000000041</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>936.30000000000018</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>714.30000000000064</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>647.09999999999991</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>998.09999999999991</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1849.5999999999995</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2873.85</v>
       </c>
       <c r="V16" s="2">
@@ -2002,44 +2231,44 @@
         <v>2882.1326039999999</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" ref="W16:AE16" si="16">+W31*W9</f>
+        <f t="shared" ref="W16:AE16" si="18">+W31*W9</f>
         <v>2738.0259738</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3011.8285711800004</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3282.8931425862006</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3687.3455777528211</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4097.2082208184229</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4384.0127962757133</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4690.8936920150136</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5019.2562504560647</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5370.6041879879904</v>
       </c>
     </row>
     <row r="17" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="3">
@@ -2054,8 +2283,8 @@
         <f>0.1-62.1-16.1</f>
         <v>-78.099999999999994</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" ref="F17:F18" si="17">T17-E17-D17-C17</f>
+      <c r="F17" s="3">
+        <f t="shared" ref="F17:F18" si="19">T17-E17-D17-C17</f>
         <v>-69.599999999999952</v>
       </c>
       <c r="G17" s="3">
@@ -2098,7 +2327,7 @@
         <f>0.5-257-113.4</f>
         <v>-369.9</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>-300</v>
       </c>
       <c r="V17" s="3">
@@ -2106,11 +2335,11 @@
         <v>-271.766592</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" ref="W17:AE17" si="18">V7*W36</f>
+        <f t="shared" ref="W17:AD17" si="20">V7*W36</f>
         <v>-158.45867415719999</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-63.27264080038065</v>
       </c>
       <c r="Y17" s="3">
@@ -2118,23 +2347,23 @@
         <v>45.52907303062733</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>158.52259993165481</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>274.94141780200601</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>420.80726012048007</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>581.10806925199802</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>756.99522801226874</v>
       </c>
       <c r="AE17" s="3">
@@ -2143,7 +2372,7 @@
       </c>
     </row>
     <row r="18" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -2155,8 +2384,8 @@
       <c r="E18" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="17"/>
+      <c r="F18" s="3">
+        <f t="shared" si="19"/>
         <v>-0.69999999999999973</v>
       </c>
       <c r="G18" s="3">
@@ -2189,8 +2418,8 @@
       <c r="T18" s="3">
         <v>2.8</v>
       </c>
-      <c r="U18" s="4">
-        <f t="shared" ref="U17:U18" si="19">SUM(F18:I18)*1.02</f>
+      <c r="U18" s="3">
+        <f t="shared" ref="U18" si="21">SUM(F18:I18)*1.02</f>
         <v>2.8560000000000003</v>
       </c>
     </row>
@@ -2199,35 +2428,35 @@
         <v>38</v>
       </c>
       <c r="C19" s="2">
-        <f>+C16+C17+C18</f>
+        <f t="shared" ref="C19:J19" si="22">+C16+C17+C18</f>
         <v>297.00000000000006</v>
       </c>
       <c r="D19" s="2">
-        <f>+D16+D17+D18</f>
+        <f t="shared" si="22"/>
         <v>264.79999999999995</v>
       </c>
       <c r="E19" s="2">
-        <f>+E16+E17+E18</f>
+        <f t="shared" si="22"/>
         <v>441.5</v>
       </c>
       <c r="F19" s="2">
-        <f>+F16+F17+F18</f>
+        <f t="shared" si="22"/>
         <v>479.19999999999925</v>
       </c>
       <c r="G19" s="2">
-        <f>+G16+G17+G18</f>
+        <f t="shared" si="22"/>
         <v>647.49999999999989</v>
       </c>
       <c r="H19" s="2">
-        <f>+H16+H17+H18</f>
+        <f t="shared" si="22"/>
         <v>699.09999999999991</v>
       </c>
       <c r="I19" s="2">
-        <f>+I16+I17+I18</f>
+        <f t="shared" si="22"/>
         <v>762.19999999999982</v>
       </c>
       <c r="J19" s="2">
-        <f>+J16+J17+J18</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M19" s="2">
@@ -2235,35 +2464,35 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" ref="N19:U19" si="20">+N16+N17+N18</f>
+        <f t="shared" ref="N19:U19" si="23">+N16+N17+N18</f>
         <v>281.3000000000003</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>89.800000000000395</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>737.30000000000018</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>204.50000000000063</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>150.39999999999992</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>339.49999999999994</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1482.4999999999993</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2576.7060000000001</v>
       </c>
       <c r="V19" s="2">
@@ -2271,44 +2500,44 @@
         <v>2610.366012</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" ref="W19:AE19" si="21">W16+W17</f>
+        <f t="shared" ref="W19:AE19" si="24">W16+W17</f>
         <v>2579.5672996428002</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2948.5559303796199</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3328.422215616828</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3845.868177684476</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4372.149638620429</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4804.8200563961936</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5272.0017612670117</v>
       </c>
       <c r="AD19" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5776.2514784683335</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>6320.3096059506588</v>
       </c>
     </row>
     <row r="20" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="3">
@@ -2320,7 +2549,7 @@
       <c r="E20" s="3">
         <v>88.7</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <f>T20-E20-D20-C20</f>
         <v>41.3</v>
       </c>
@@ -2354,7 +2583,7 @@
       <c r="T20" s="3">
         <v>197</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="3">
         <f>SUM(F20:I20)*1.02</f>
         <v>525.81000000000006</v>
       </c>
@@ -2363,39 +2592,39 @@
         <v>469.86588215999996</v>
       </c>
       <c r="W20" s="3">
-        <f t="shared" ref="W20:AE20" si="22">+W19*W35</f>
+        <f t="shared" ref="W20:AE20" si="25">+W19*W35</f>
         <v>464.32211393570401</v>
       </c>
       <c r="X20" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>530.74006746833152</v>
       </c>
       <c r="Y20" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>565.83177665486085</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>615.33890842951621</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>655.82244579306428</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>720.72300845942902</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>790.80026419005173</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>866.43772177025005</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>948.04644089259875</v>
       </c>
     </row>
@@ -2404,35 +2633,35 @@
         <v>40</v>
       </c>
       <c r="C21" s="2">
-        <f>+C19-C20</f>
+        <f t="shared" ref="C21:J21" si="26">+C19-C20</f>
         <v>252.80000000000007</v>
       </c>
       <c r="D21" s="2">
-        <f>+D19-D20</f>
+        <f t="shared" si="26"/>
         <v>241.99999999999994</v>
       </c>
       <c r="E21" s="2">
-        <f>+E19-E20</f>
+        <f t="shared" si="26"/>
         <v>352.8</v>
       </c>
       <c r="F21" s="2">
-        <f>+F19-F20</f>
+        <f t="shared" si="26"/>
         <v>437.89999999999924</v>
       </c>
       <c r="G21" s="2">
-        <f>+G19-G20</f>
+        <f t="shared" si="26"/>
         <v>508.09999999999991</v>
       </c>
       <c r="H21" s="2">
-        <f>+H19-H20</f>
+        <f t="shared" si="26"/>
         <v>546.19999999999993</v>
       </c>
       <c r="I21" s="2">
-        <f>+I19-I20</f>
+        <f t="shared" si="26"/>
         <v>580.29999999999984</v>
       </c>
       <c r="J21" s="2">
-        <f>+J19-J20</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M21" s="2">
@@ -2440,35 +2669,35 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" ref="N21:U21" si="23">+N19-N20</f>
+        <f t="shared" ref="N21:U21" si="27">+N19-N20</f>
         <v>323.90000000000032</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>170.70000000000039</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>255.4000000000002</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>355.90000000000066</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>570.59999999999991</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>349.39999999999992</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1285.4999999999993</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2050.8960000000002</v>
       </c>
       <c r="V21" s="2">
@@ -2476,39 +2705,39 @@
         <v>2140.5001298400002</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" ref="W21:AE21" si="24">+W19-W20</f>
+        <f t="shared" ref="W21:AE21" si="28">+W19-W20</f>
         <v>2115.2451857070964</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2417.8158629112886</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2762.5904389619673</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>3230.5292692549597</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>3716.3271928273648</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4084.0970479367647</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4481.2014970769596</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4909.8137566980831</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5372.2631650580597</v>
       </c>
       <c r="AF21" s="2">
@@ -2873,7 +3102,7 @@
       </c>
     </row>
     <row r="22" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="3">
@@ -2885,7 +3114,7 @@
       <c r="E22" s="3">
         <v>554.9</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <f>T22</f>
         <v>552.29999999999995</v>
       </c>
@@ -2923,76 +3152,76 @@
         <v>552.29999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:121" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:121" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="5">
-        <f>+C21/C22</f>
+      <c r="C23" s="4">
+        <f t="shared" ref="C23:J23" si="29">+C21/C22</f>
         <v>0.46173515981735175</v>
       </c>
-      <c r="D23" s="5">
-        <f>+D21/D22</f>
+      <c r="D23" s="4">
+        <f t="shared" si="29"/>
         <v>0.4389624523852711</v>
       </c>
-      <c r="E23" s="5">
-        <f>+E21/E22</f>
+      <c r="E23" s="4">
+        <f t="shared" si="29"/>
         <v>0.63579023247431976</v>
       </c>
-      <c r="F23" s="5">
-        <f>+F21/F22</f>
+      <c r="F23" s="4">
+        <f t="shared" si="29"/>
         <v>0.79286619590801966</v>
       </c>
-      <c r="G23" s="5">
-        <f>+G21/G22</f>
+      <c r="G23" s="4">
+        <f t="shared" si="29"/>
         <v>0.91747923438064272</v>
       </c>
-      <c r="H23" s="5">
-        <f>+H21/H22</f>
+      <c r="H23" s="4">
+        <f t="shared" si="29"/>
         <v>0.99038984587488654</v>
       </c>
-      <c r="I23" s="5">
-        <f>+I21/I22</f>
+      <c r="I23" s="4">
+        <f t="shared" si="29"/>
         <v>1.0566278222869625</v>
       </c>
-      <c r="J23" s="5" t="e">
-        <f>+J21/J22</f>
+      <c r="J23" s="4" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="5" t="e">
+      <c r="M23" s="4" t="e">
         <f>+M21/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="5">
-        <f t="shared" ref="N23:U23" si="25">+N21/N22</f>
+      <c r="N23" s="4">
+        <f t="shared" ref="N23:U23" si="30">+N21/N22</f>
         <v>1.59242871189774</v>
       </c>
-      <c r="O23" s="5">
-        <f t="shared" si="25"/>
+      <c r="O23" s="4">
+        <f t="shared" si="30"/>
         <v>0.7859116022099466</v>
       </c>
-      <c r="P23" s="5">
-        <f t="shared" si="25"/>
+      <c r="P23" s="4">
+        <f t="shared" si="30"/>
         <v>1.0966079862601983</v>
       </c>
-      <c r="Q23" s="5">
-        <f t="shared" si="25"/>
+      <c r="Q23" s="4">
+        <f t="shared" si="30"/>
         <v>1.5067739204064381</v>
       </c>
-      <c r="R23" s="5">
-        <f t="shared" si="25"/>
+      <c r="R23" s="4">
+        <f t="shared" si="30"/>
         <v>2.388447048974466</v>
       </c>
-      <c r="S23" s="5">
-        <f t="shared" si="25"/>
+      <c r="S23" s="4">
+        <f t="shared" si="30"/>
         <v>0.67295839753466846</v>
       </c>
-      <c r="T23" s="5">
-        <f t="shared" si="25"/>
+      <c r="T23" s="4">
+        <f t="shared" si="30"/>
         <v>2.3275393807713187</v>
       </c>
-      <c r="U23" s="5">
-        <f t="shared" si="25"/>
+      <c r="U23" s="4">
+        <f t="shared" si="30"/>
         <v>3.7133731667571976</v>
       </c>
     </row>
@@ -3089,485 +3318,485 @@
         <v>854.99999999999932</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ref="G28:I28" si="26">G16+G25</f>
+        <f t="shared" ref="G28:I28" si="31">G16+G25</f>
         <v>964.69999999999982</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1011.1999999999999</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1059.7999999999997</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" ref="N28:T28" si="27">N16+N25</f>
+        <f t="shared" ref="N28:T28" si="32">N16+N25</f>
         <v>687.50000000000023</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>805.60000000000036</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1664.9</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1721.8000000000006</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>2001.4999999999998</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>2239.5999999999995</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>3049.4999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:121" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:121" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f>C11/C9</f>
         <v>0.64202880081559832</v>
       </c>
-      <c r="D30" s="6">
-        <f t="shared" ref="D30:I30" si="28">D11/D9</f>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:I30" si="33">D11/D9</f>
         <v>0.64753303430718878</v>
       </c>
-      <c r="E30" s="6">
-        <f t="shared" si="28"/>
+      <c r="E30" s="5">
+        <f t="shared" si="33"/>
         <v>0.65621621621621617</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" si="28"/>
+      <c r="F30" s="5">
+        <f t="shared" si="33"/>
         <v>0.66175035245634939</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="28"/>
+      <c r="G30" s="5">
+        <f t="shared" si="33"/>
         <v>0.66709105724180073</v>
       </c>
-      <c r="H30" s="6">
-        <f t="shared" si="28"/>
+      <c r="H30" s="5">
+        <f t="shared" si="33"/>
         <v>0.67427165734130812</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" si="28"/>
+      <c r="I30" s="5">
+        <f t="shared" si="33"/>
         <v>0.67803798635441626</v>
       </c>
-      <c r="J30" s="6" t="e">
+      <c r="J30" s="5" t="e">
         <f>J11/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="6">
-        <f t="shared" ref="M30:U30" si="29">N11/N9</f>
+      <c r="N30" s="5">
+        <f t="shared" ref="N30:U30" si="34">N11/N9</f>
         <v>0.55468642157088299</v>
       </c>
-      <c r="O30" s="6">
-        <f t="shared" si="29"/>
+      <c r="O30" s="5">
+        <f t="shared" si="34"/>
         <v>0.51564058923645761</v>
       </c>
-      <c r="P30" s="6">
-        <f t="shared" si="29"/>
+      <c r="P30" s="5">
+        <f t="shared" si="34"/>
         <v>0.60809385048231512</v>
       </c>
-      <c r="Q30" s="6">
-        <f t="shared" si="29"/>
+      <c r="Q30" s="5">
+        <f t="shared" si="34"/>
         <v>0.54795775306103378</v>
       </c>
-      <c r="R30" s="6">
-        <f t="shared" si="29"/>
+      <c r="R30" s="5">
+        <f t="shared" si="34"/>
         <v>0.61470933980508891</v>
       </c>
-      <c r="S30" s="6">
-        <f t="shared" si="29"/>
+      <c r="S30" s="5">
+        <f t="shared" si="34"/>
         <v>0.62128567225654607</v>
       </c>
-      <c r="T30" s="6">
-        <f t="shared" si="29"/>
+      <c r="T30" s="5">
+        <f t="shared" si="34"/>
         <v>0.65234793062499075</v>
       </c>
-      <c r="U30" s="6">
-        <f t="shared" si="29"/>
+      <c r="U30" s="5">
+        <f t="shared" si="34"/>
         <v>0.67066656729025365</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V30" s="5">
         <v>0.67</v>
       </c>
-      <c r="W30" s="6">
+      <c r="W30" s="5">
         <v>0.67</v>
       </c>
-      <c r="X30" s="6">
+      <c r="X30" s="5">
         <v>0.67</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Y30" s="5">
         <v>0.67</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="Z30" s="5">
         <v>0.67</v>
       </c>
-      <c r="AA30" s="6">
+      <c r="AA30" s="5">
         <v>0.68</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AB30" s="5">
         <v>0.68</v>
       </c>
-      <c r="AC30" s="6">
+      <c r="AC30" s="5">
         <v>0.68</v>
       </c>
-      <c r="AD30" s="6">
+      <c r="AD30" s="5">
         <v>0.68</v>
       </c>
-      <c r="AE30" s="6">
+      <c r="AE30" s="5">
         <v>0.68</v>
       </c>
     </row>
-    <row r="31" spans="1:121" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:121" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <f>C16/C9</f>
         <v>0.23499426532432779</v>
       </c>
-      <c r="D31" s="6">
-        <f t="shared" ref="D31:I31" si="30">D16/D9</f>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:I31" si="35">D16/D9</f>
         <v>0.2523336161959025</v>
       </c>
-      <c r="E31" s="6">
-        <f t="shared" si="30"/>
+      <c r="E31" s="5">
+        <f t="shared" si="35"/>
         <v>0.2930298719772404</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="30"/>
+      <c r="F31" s="5">
+        <f t="shared" si="35"/>
         <v>0.29796117557748586</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="30"/>
+      <c r="G31" s="5">
+        <f t="shared" si="35"/>
         <v>0.35715013240985938</v>
       </c>
-      <c r="H31" s="6">
-        <f t="shared" si="30"/>
+      <c r="H31" s="5">
+        <f t="shared" si="35"/>
         <v>0.36421956395909705</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" si="30"/>
+      <c r="I31" s="5">
+        <f t="shared" si="35"/>
         <v>0.37414715102341872</v>
       </c>
-      <c r="J31" s="6" t="e">
+      <c r="J31" s="5" t="e">
         <f>J16/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="6">
-        <f t="shared" ref="M31:U31" si="31">N16/N9</f>
+      <c r="N31" s="5">
+        <f t="shared" ref="N31:U31" si="36">N16/N9</f>
         <v>0.16210371324713582</v>
       </c>
-      <c r="O31" s="6">
-        <f t="shared" si="31"/>
+      <c r="O31" s="5">
+        <f t="shared" si="36"/>
         <v>8.0931979576266327E-2</v>
       </c>
-      <c r="P31" s="6">
-        <f t="shared" si="31"/>
+      <c r="P31" s="5">
+        <f t="shared" si="36"/>
         <v>0.2352039790996785</v>
       </c>
-      <c r="Q31" s="6">
-        <f t="shared" si="31"/>
+      <c r="Q31" s="5">
+        <f t="shared" si="36"/>
         <v>0.13352649780353315</v>
       </c>
-      <c r="R31" s="6">
-        <f t="shared" si="31"/>
+      <c r="R31" s="5">
+        <f t="shared" si="36"/>
         <v>0.12269159303780666</v>
       </c>
-      <c r="S31" s="6">
-        <f t="shared" si="31"/>
+      <c r="S31" s="5">
+        <f t="shared" si="36"/>
         <v>0.18352824360105913</v>
       </c>
-      <c r="T31" s="6">
-        <f t="shared" si="31"/>
+      <c r="T31" s="5">
+        <f t="shared" si="36"/>
         <v>0.27116656159744307</v>
       </c>
-      <c r="U31" s="6">
-        <f t="shared" si="31"/>
+      <c r="U31" s="5">
+        <f t="shared" si="36"/>
         <v>0.34999130456386179</v>
       </c>
-      <c r="V31" s="6">
+      <c r="V31" s="5">
         <v>0.3</v>
       </c>
-      <c r="W31" s="6">
+      <c r="W31" s="5">
         <v>0.25</v>
       </c>
-      <c r="X31" s="6">
+      <c r="X31" s="5">
         <v>0.25</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="5">
         <v>0.25</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="Z31" s="5">
         <v>0.26</v>
       </c>
-      <c r="AA31" s="6">
+      <c r="AA31" s="5">
         <v>0.27</v>
       </c>
-      <c r="AB31" s="6">
+      <c r="AB31" s="5">
         <v>0.27</v>
       </c>
-      <c r="AC31" s="6">
+      <c r="AC31" s="5">
         <v>0.27</v>
       </c>
-      <c r="AD31" s="6">
+      <c r="AD31" s="5">
         <v>0.27</v>
       </c>
-      <c r="AE31" s="6">
+      <c r="AE31" s="5">
         <v>0.27</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <f>G9/C9-1</f>
         <v>0.25117879444373625</v>
       </c>
-      <c r="H33" s="7">
-        <f t="shared" ref="H33:J33" si="32">H9/D9-1</f>
+      <c r="H33" s="6">
+        <f t="shared" ref="H33:I33" si="37">H9/D9-1</f>
         <v>0.25663716814159288</v>
       </c>
-      <c r="I33" s="7">
-        <f t="shared" si="32"/>
+      <c r="I33" s="6">
+        <f t="shared" si="37"/>
         <v>0.23425320056898991</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="6">
         <f>O9/N9-1</f>
         <v>0.56803018451203235</v>
       </c>
-      <c r="P33" s="7">
-        <f t="shared" ref="P33:U33" si="33">P9/O9-1</f>
+      <c r="P33" s="6">
+        <f t="shared" ref="P33:U33" si="38">P9/O9-1</f>
         <v>0.16814367040319267</v>
       </c>
-      <c r="Q33" s="7">
-        <f t="shared" si="33"/>
+      <c r="Q33" s="6">
+        <f t="shared" si="38"/>
         <v>0.34382536173633427</v>
       </c>
-      <c r="R33" s="7">
-        <f t="shared" si="33"/>
+      <c r="R33" s="6">
+        <f t="shared" si="38"/>
         <v>-1.4076081876810975E-2</v>
       </c>
-      <c r="S33" s="7">
-        <f t="shared" si="33"/>
+      <c r="S33" s="6">
+        <f t="shared" si="38"/>
         <v>3.1132683629744751E-2</v>
       </c>
-      <c r="T33" s="7">
-        <f t="shared" si="33"/>
+      <c r="T33" s="6">
+        <f t="shared" si="38"/>
         <v>0.25421079729332163</v>
       </c>
-      <c r="U33" s="7">
-        <f t="shared" si="33"/>
+      <c r="U33" s="6">
+        <f t="shared" si="38"/>
         <v>0.20382999310941363</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="6">
         <v>0.17</v>
       </c>
-      <c r="W33" s="7">
+      <c r="W33" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X33" s="7">
+      <c r="X33" s="6">
         <v>0.1</v>
       </c>
-      <c r="Y33" s="7">
+      <c r="Y33" s="6">
         <v>0.09</v>
       </c>
-      <c r="Z33" s="7">
+      <c r="Z33" s="6">
         <v>0.08</v>
       </c>
-      <c r="AA33" s="7">
+      <c r="AA33" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AB33" s="7">
+      <c r="AB33" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AC33" s="7">
+      <c r="AC33" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD33" s="7">
+      <c r="AD33" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AE33" s="7">
+      <c r="AE33" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <f>C20/C19</f>
         <v>0.1488215488215488</v>
       </c>
-      <c r="D35" s="7">
-        <f t="shared" ref="D35:I35" si="34">D20/D19</f>
+      <c r="D35" s="6">
+        <f t="shared" ref="D35:I35" si="39">D20/D19</f>
         <v>8.6102719033232647E-2</v>
       </c>
-      <c r="E35" s="7">
-        <f t="shared" si="34"/>
+      <c r="E35" s="6">
+        <f t="shared" si="39"/>
         <v>0.20090600226500566</v>
       </c>
-      <c r="F35" s="7">
-        <f t="shared" si="34"/>
+      <c r="F35" s="6">
+        <f t="shared" si="39"/>
         <v>8.6185308848080261E-2</v>
       </c>
-      <c r="G35" s="7">
-        <f t="shared" si="34"/>
+      <c r="G35" s="6">
+        <f t="shared" si="39"/>
         <v>0.21528957528957535</v>
       </c>
-      <c r="H35" s="7">
-        <f t="shared" si="34"/>
+      <c r="H35" s="6">
+        <f t="shared" si="39"/>
         <v>0.21870976970390504</v>
       </c>
-      <c r="I35" s="7">
-        <f t="shared" si="34"/>
+      <c r="I35" s="6">
+        <f t="shared" si="39"/>
         <v>0.23865127263185523</v>
       </c>
-      <c r="N35" s="7">
-        <f t="shared" ref="N35:U35" si="35">N20/N19</f>
+      <c r="N35" s="6">
+        <f t="shared" ref="N35:U35" si="40">N20/N19</f>
         <v>-0.15143974404550287</v>
       </c>
-      <c r="O35" s="7">
-        <f t="shared" si="35"/>
+      <c r="O35" s="6">
+        <f t="shared" si="40"/>
         <v>-0.90089086859687806</v>
       </c>
-      <c r="P35" s="7">
-        <f t="shared" si="35"/>
+      <c r="P35" s="6">
+        <f t="shared" si="40"/>
         <v>0.65360097653600957</v>
       </c>
-      <c r="Q35" s="7">
-        <f t="shared" si="35"/>
+      <c r="Q35" s="6">
+        <f t="shared" si="40"/>
         <v>-0.74034229828850628</v>
       </c>
-      <c r="R35" s="7">
-        <f t="shared" si="35"/>
+      <c r="R35" s="6">
+        <f t="shared" si="40"/>
         <v>-2.7938829787234059</v>
       </c>
-      <c r="S35" s="7">
-        <f t="shared" si="35"/>
+      <c r="S35" s="6">
+        <f t="shared" si="40"/>
         <v>-2.9160530191458034E-2</v>
       </c>
-      <c r="T35" s="7">
-        <f t="shared" si="35"/>
+      <c r="T35" s="6">
+        <f t="shared" si="40"/>
         <v>0.13288364249578422</v>
       </c>
-      <c r="U35" s="7">
-        <f t="shared" si="35"/>
+      <c r="U35" s="6">
+        <f t="shared" si="40"/>
         <v>0.2040628616535996</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="6">
         <v>0.18</v>
       </c>
-      <c r="W35" s="7">
+      <c r="W35" s="6">
         <v>0.18</v>
       </c>
-      <c r="X35" s="7">
+      <c r="X35" s="6">
         <v>0.18</v>
       </c>
-      <c r="Y35" s="7">
+      <c r="Y35" s="6">
         <v>0.17</v>
       </c>
-      <c r="Z35" s="7">
+      <c r="Z35" s="6">
         <v>0.16</v>
       </c>
-      <c r="AA35" s="7">
+      <c r="AA35" s="6">
         <v>0.15</v>
       </c>
-      <c r="AB35" s="7">
+      <c r="AB35" s="6">
         <v>0.15</v>
       </c>
-      <c r="AC35" s="7">
+      <c r="AC35" s="6">
         <v>0.15</v>
       </c>
-      <c r="AD35" s="7">
+      <c r="AD35" s="6">
         <v>0.15</v>
       </c>
-      <c r="AE35" s="7">
+      <c r="AE35" s="6">
         <v>0.15</v>
       </c>
     </row>
-    <row r="36" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="6">
         <f>P17/O7</f>
         <v>0.11436012785604359</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="6">
         <f>Q17/P7</f>
         <v>0.49970466627288829</v>
       </c>
-      <c r="R36" s="7">
-        <f t="shared" ref="Q36:U36" si="36">R17/Q7</f>
+      <c r="R36" s="6">
+        <f t="shared" ref="R36:S36" si="41">R17/Q7</f>
         <v>4.9482801286810187E-2</v>
       </c>
-      <c r="S36" s="7">
-        <f t="shared" si="36"/>
+      <c r="S36" s="6">
+        <f t="shared" si="41"/>
         <v>7.0137103684661514E-2</v>
       </c>
-      <c r="T36" s="7">
+      <c r="T36" s="6">
         <f>T17/S7</f>
         <v>4.1494194851085305E-2</v>
       </c>
-      <c r="U36" s="7">
+      <c r="U36" s="6">
         <f>U17/T7</f>
         <v>3.8896884359562803E-2</v>
       </c>
-      <c r="V36" s="7">
+      <c r="V36" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="W36" s="7">
+      <c r="W36" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="X36" s="7">
+      <c r="X36" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="Y36" s="7">
+      <c r="Y36" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="Z36" s="7">
+      <c r="Z36" s="6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AA36" s="7">
+      <c r="AA36" s="6">
         <v>3.925E-2</v>
       </c>
-      <c r="AB36" s="7">
+      <c r="AB36" s="6">
         <v>3.925E-2</v>
       </c>
-      <c r="AC36" s="7">
+      <c r="AC36" s="6">
         <v>3.925E-2</v>
       </c>
-      <c r="AD36" s="7">
+      <c r="AD36" s="6">
         <v>3.925E-2</v>
       </c>
-      <c r="AE36" s="7">
+      <c r="AE36" s="6">
         <v>3.925E-2</v>
       </c>
     </row>
@@ -3596,7 +3825,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>-0.01</v>
       </c>
     </row>
@@ -3604,7 +3833,7 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.08</v>
       </c>
     </row>
